--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_1_202306_site.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_1_202306_site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C9AF22-98E1-4C40-B8D6-E0F206C1E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E424BC96-A601-47E1-BA4C-1F6AD1715359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="405">
   <si>
     <t>form_title</t>
   </si>
@@ -134,9 +134,6 @@
     <t>c_GPS</t>
   </si>
   <si>
-    <t>c_VillagePop</t>
-  </si>
-  <si>
     <t>c_StartTime</t>
   </si>
   <si>
@@ -146,21 +143,12 @@
     <t>Code à deux chiffres qui vous a été assigné</t>
   </si>
   <si>
-    <t>Entrer le nom du grappe</t>
-  </si>
-  <si>
     <t>Capturer les données GPS</t>
   </si>
   <si>
     <t>Fonctionne mieux à l'extérieure des bâtiments</t>
   </si>
   <si>
-    <t>Entrer la population total du village</t>
-  </si>
-  <si>
-    <t>Vous pouvez obtenir ces informations dans le registre communautaire d'AMM</t>
-  </si>
-  <si>
     <t>Notes additionnelles</t>
   </si>
   <si>
@@ -173,15 +161,9 @@
     <t>yesNoDontKnow</t>
   </si>
   <si>
-    <t>c_cluster_type</t>
-  </si>
-  <si>
     <t>c_region</t>
   </si>
   <si>
-    <t>Sélectionner un département</t>
-  </si>
-  <si>
     <t>region_list</t>
   </si>
   <si>
@@ -197,9 +179,6 @@
     <t>${c_region} = region_list</t>
   </si>
   <si>
-    <t>BAKO</t>
-  </si>
-  <si>
     <t>DJABATA</t>
   </si>
   <si>
@@ -236,18 +215,12 @@
     <t>village_type</t>
   </si>
   <si>
-    <t>select_one village_type</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>Type de grappe</t>
-  </si>
-  <si>
     <t>BANTE</t>
   </si>
   <si>
@@ -272,15 +245,6 @@
     <t>OKPARA</t>
   </si>
   <si>
-    <t>OUBEROU</t>
-  </si>
-  <si>
-    <t>TCHALENGA</t>
-  </si>
-  <si>
-    <t>TEROU</t>
-  </si>
-  <si>
     <t>c_Cluster_Name</t>
   </si>
   <si>
@@ -290,21 +254,9 @@
     <t>regex(.,'^[0-9]{2}$') and . &gt; 9 and . &lt; 1000</t>
   </si>
   <si>
-    <t>bj_oncho_stop_1_202306_site</t>
-  </si>
-  <si>
-    <t>(2023 Juin) ONCHO Stop TDM - 1. Formulaire Site</t>
-  </si>
-  <si>
     <t>PIRA</t>
   </si>
   <si>
-    <t>PENESOULOU</t>
-  </si>
-  <si>
-    <t>BESSÈ</t>
-  </si>
-  <si>
     <t>KABOUA</t>
   </si>
   <si>
@@ -314,58 +266,985 @@
     <t>KIKA</t>
   </si>
   <si>
-    <t>ADON KABOURÉ</t>
-  </si>
-  <si>
-    <t>AKOUTA OSSE</t>
-  </si>
-  <si>
-    <t>ARIGBOKOTO</t>
-  </si>
-  <si>
     <t>ASSION</t>
   </si>
   <si>
-    <t>DOGUE</t>
-  </si>
-  <si>
-    <t>KIKELE</t>
-  </si>
-  <si>
-    <t>ODOKOUDJÈ</t>
-  </si>
-  <si>
-    <t>ENGARADEBOU</t>
-  </si>
-  <si>
     <t>SALMANGA</t>
   </si>
   <si>
-    <t>BESSE OWODÉ</t>
-  </si>
-  <si>
     <t>IGBODJA</t>
   </si>
   <si>
-    <t>OKÉOWO</t>
-  </si>
-  <si>
-    <t>SINAOU</t>
-  </si>
-  <si>
-    <t>WARI MARO</t>
-  </si>
-  <si>
-    <t>KOKOBE</t>
-  </si>
-  <si>
-    <t>GBONGBONTOUTA</t>
-  </si>
-  <si>
     <t>KAWADO</t>
   </si>
   <si>
-    <t>PITAOUDÈ</t>
+    <t>AGOUA</t>
+  </si>
+  <si>
+    <t>AKPASSI</t>
+  </si>
+  <si>
+    <t>ATOKOLIBE</t>
+  </si>
+  <si>
+    <t>BOBE</t>
+  </si>
+  <si>
+    <t>GOUKA</t>
+  </si>
+  <si>
+    <t>KOKO</t>
+  </si>
+  <si>
+    <t>LOUGBA</t>
+  </si>
+  <si>
+    <t>ALEDJO</t>
+  </si>
+  <si>
+    <t>MANIGRI</t>
+  </si>
+  <si>
+    <t>PENESSOULOU</t>
+  </si>
+  <si>
+    <t>BADJOUDE</t>
+  </si>
+  <si>
+    <t>KOMDE</t>
+  </si>
+  <si>
+    <t>SEMERE 1</t>
+  </si>
+  <si>
+    <t>SEMERE 2</t>
+  </si>
+  <si>
+    <t>TCHALINGA</t>
+  </si>
+  <si>
+    <t>ADIDO</t>
+  </si>
+  <si>
+    <t>BESSE</t>
+  </si>
+  <si>
+    <t>BONI</t>
+  </si>
+  <si>
+    <t>OFFE</t>
+  </si>
+  <si>
+    <t>PLATEAU</t>
+  </si>
+  <si>
+    <t>SAKIN</t>
+  </si>
+  <si>
+    <t>ALAFIAROU</t>
+  </si>
+  <si>
+    <t>GORO</t>
+  </si>
+  <si>
+    <t>SANSON</t>
+  </si>
+  <si>
+    <t>TCHATCHOU</t>
+  </si>
+  <si>
+    <t>AGBABOUÉ</t>
+  </si>
+  <si>
+    <t>ATTI</t>
+  </si>
+  <si>
+    <t>DJALOUMON</t>
+  </si>
+  <si>
+    <t>IGBOÈ</t>
+  </si>
+  <si>
+    <t>ISSALÈ OTIN</t>
+  </si>
+  <si>
+    <t>KINGOUN</t>
+  </si>
+  <si>
+    <t>TCHOUI</t>
+  </si>
+  <si>
+    <t>CLOUBOU</t>
+  </si>
+  <si>
+    <t>KADJOGBÉ (AGOUA)</t>
+  </si>
+  <si>
+    <t>N’TCHOCHÉ</t>
+  </si>
+  <si>
+    <t>N’TCHON</t>
+  </si>
+  <si>
+    <t>BANON</t>
+  </si>
+  <si>
+    <t>ILLAGBO</t>
+  </si>
+  <si>
+    <t>ILLARÉ</t>
+  </si>
+  <si>
+    <t>OKOTO</t>
+  </si>
+  <si>
+    <t>AGBASSA</t>
+  </si>
+  <si>
+    <t>AGRAMAROU</t>
+  </si>
+  <si>
+    <t>AYÉGOUROU</t>
+  </si>
+  <si>
+    <t>BABAROU</t>
+  </si>
+  <si>
+    <t>KODA</t>
+  </si>
+  <si>
+    <t>OLOUNGBÉ</t>
+  </si>
+  <si>
+    <t>AKARADÈ</t>
+  </si>
+  <si>
+    <t>ALÉDJO</t>
+  </si>
+  <si>
+    <t>BOUTOU</t>
+  </si>
+  <si>
+    <t>IGADOUGOU</t>
+  </si>
+  <si>
+    <t>KADÉGUÉ</t>
+  </si>
+  <si>
+    <t>KAOUTÉ</t>
+  </si>
+  <si>
+    <t>NIBADARA</t>
+  </si>
+  <si>
+    <t>PARTAGO</t>
+  </si>
+  <si>
+    <t>TCHIMBÉRI</t>
+  </si>
+  <si>
+    <t>AGBON</t>
+  </si>
+  <si>
+    <t>ALOBA</t>
+  </si>
+  <si>
+    <t>ATOKOLIBÉ</t>
+  </si>
+  <si>
+    <t>MALOMI</t>
+  </si>
+  <si>
+    <t>ODJOGBILÈ</t>
+  </si>
+  <si>
+    <t>OGUÉDÉ</t>
+  </si>
+  <si>
+    <t>OKOUTA-ORO</t>
+  </si>
+  <si>
+    <t>AKPADÉ</t>
+  </si>
+  <si>
+    <t>ALITOKOUM</t>
+  </si>
+  <si>
+    <t>ATCHANKOMOU</t>
+  </si>
+  <si>
+    <t>BADJOUDÉ</t>
+  </si>
+  <si>
+    <t>BISSÉTOUGOU</t>
+  </si>
+  <si>
+    <t>BOHOMDO</t>
+  </si>
+  <si>
+    <t>ITCHODÉ</t>
+  </si>
+  <si>
+    <t>KADOLASSI</t>
+  </si>
+  <si>
+    <t>KAKPALA</t>
+  </si>
+  <si>
+    <t>KOMTCHA</t>
+  </si>
+  <si>
+    <t>PAMOU</t>
+  </si>
+  <si>
+    <t>TALINTA</t>
+  </si>
+  <si>
+    <t>TCHITCHAKOU</t>
+  </si>
+  <si>
+    <t>ADJANTÈ</t>
+  </si>
+  <si>
+    <t>BASSON</t>
+  </si>
+  <si>
+    <t>GBÉGAMEY</t>
+  </si>
+  <si>
+    <t>ILLÉLAKOUN</t>
+  </si>
+  <si>
+    <t>ADJIRO</t>
+  </si>
+  <si>
+    <t>AORO-LOKPA</t>
+  </si>
+  <si>
+    <t>AORO-NAGA</t>
+  </si>
+  <si>
+    <t>APPI</t>
+  </si>
+  <si>
+    <t>BASSILA AGNIHOU TADJA</t>
+  </si>
+  <si>
+    <t>BASSILA ATONONKA</t>
+  </si>
+  <si>
+    <t>BASSILA BAKABAKA</t>
+  </si>
+  <si>
+    <t>BIGUINA AKPASSA</t>
+  </si>
+  <si>
+    <t>BIGUINA HOLOUDÈ</t>
+  </si>
+  <si>
+    <t>BIGUINA TOSSO</t>
+  </si>
+  <si>
+    <t>DIÉPANI-BALIMBOLI</t>
+  </si>
+  <si>
+    <t>DOGUÈ</t>
+  </si>
+  <si>
+    <t>FRIGNIOU</t>
+  </si>
+  <si>
+    <t>GUIGUISSO</t>
+  </si>
+  <si>
+    <t>KIKÉLÉ</t>
+  </si>
+  <si>
+    <t>KOÏWALI</t>
+  </si>
+  <si>
+    <t>KPRÈKÈTÈ</t>
+  </si>
+  <si>
+    <t>BESSÉ OWODÉ</t>
+  </si>
+  <si>
+    <t>KADJOGBÉ</t>
+  </si>
+  <si>
+    <t>ADAMOU-KPARA</t>
+  </si>
+  <si>
+    <t>BANIGRI</t>
+  </si>
+  <si>
+    <t>BÉTÉROU</t>
+  </si>
+  <si>
+    <t>KAKI KOKA</t>
+  </si>
+  <si>
+    <t>KPAWA</t>
+  </si>
+  <si>
+    <t>KPESSOU</t>
+  </si>
+  <si>
+    <t>OUBÉROU</t>
+  </si>
+  <si>
+    <t>SINAHOU</t>
+  </si>
+  <si>
+    <t>SOMOU - GAH</t>
+  </si>
+  <si>
+    <t>TCHOKPASSI</t>
+  </si>
+  <si>
+    <t>WARI-MARO</t>
+  </si>
+  <si>
+    <t>YÉBESSI</t>
+  </si>
+  <si>
+    <t>ASSABA</t>
+  </si>
+  <si>
+    <t>BOBÈ</t>
+  </si>
+  <si>
+    <t>DJAGBALLO</t>
+  </si>
+  <si>
+    <t>FOMON</t>
+  </si>
+  <si>
+    <t>SOULA</t>
+  </si>
+  <si>
+    <t>ADJÉGOULÈ</t>
+  </si>
+  <si>
+    <t>AGBADJO</t>
+  </si>
+  <si>
+    <t>AGBAÏGODO</t>
+  </si>
+  <si>
+    <t>AWO SÉRIKI</t>
+  </si>
+  <si>
+    <t>DJANGBÉ</t>
+  </si>
+  <si>
+    <t>KILIBO-OGBO</t>
+  </si>
+  <si>
+    <t>MADINA</t>
+  </si>
+  <si>
+    <t>TCHOUGBÉ</t>
+  </si>
+  <si>
+    <t>GBÉBA</t>
+  </si>
+  <si>
+    <t>NIM SOUAMBOU</t>
+  </si>
+  <si>
+    <t>WOUKPO</t>
+  </si>
+  <si>
+    <t>GALATA</t>
+  </si>
+  <si>
+    <t>GALATA-IGBERI</t>
+  </si>
+  <si>
+    <t>GBÈDJÈ</t>
+  </si>
+  <si>
+    <t>KAFÉGNIGBÉ</t>
+  </si>
+  <si>
+    <t>KAMALA-IDJOU</t>
+  </si>
+  <si>
+    <t>MAMATCHOKÉ</t>
+  </si>
+  <si>
+    <t>MAYAMON</t>
+  </si>
+  <si>
+    <t>MONTÈWO- ATAKÈ- AGBADO</t>
+  </si>
+  <si>
+    <t>SAKO</t>
+  </si>
+  <si>
+    <t>ZONGO (GOUKA)</t>
+  </si>
+  <si>
+    <t>ALAFIA</t>
+  </si>
+  <si>
+    <t>ATÈSSÈ</t>
+  </si>
+  <si>
+    <t>BAAKO</t>
+  </si>
+  <si>
+    <t>BABAGUIDAÏ</t>
+  </si>
+  <si>
+    <t>GAH AKÉÉKÉÉ</t>
+  </si>
+  <si>
+    <t>GOGORO</t>
+  </si>
+  <si>
+    <t>MONTÈWO</t>
+  </si>
+  <si>
+    <t>OKÉ OLOU -OSSIN</t>
+  </si>
+  <si>
+    <t>OKÉ OLOU-OTIN</t>
+  </si>
+  <si>
+    <t>OKOUNFO</t>
+  </si>
+  <si>
+    <t>TCHAYAGBANGBA</t>
+  </si>
+  <si>
+    <t>BONWOUBÉROU</t>
+  </si>
+  <si>
+    <t>BOUAY</t>
+  </si>
+  <si>
+    <t>CAMP ZATO</t>
+  </si>
+  <si>
+    <t>GOUROUBARA</t>
+  </si>
+  <si>
+    <t>KABO</t>
+  </si>
+  <si>
+    <t>KIKA-BARRAGE</t>
+  </si>
+  <si>
+    <t>KOKOBÈ</t>
+  </si>
+  <si>
+    <t>KPARI</t>
+  </si>
+  <si>
+    <t>KPÉWONKOU</t>
+  </si>
+  <si>
+    <t>MONRAWONKOUROU</t>
+  </si>
+  <si>
+    <t>NANNONROU</t>
+  </si>
+  <si>
+    <t>SONNA</t>
+  </si>
+  <si>
+    <t>SUI -GOUROU</t>
+  </si>
+  <si>
+    <t>TANDOU</t>
+  </si>
+  <si>
+    <t>TANGUÉ</t>
+  </si>
+  <si>
+    <t>TOUROU-SOUANRÉ</t>
+  </si>
+  <si>
+    <t>WARANKPÉROU</t>
+  </si>
+  <si>
+    <t>WINRA</t>
+  </si>
+  <si>
+    <t>YÈROUMAROU</t>
+  </si>
+  <si>
+    <t>AKPAKA</t>
+  </si>
+  <si>
+    <t>ISSALÈ</t>
+  </si>
+  <si>
+    <t>ITCHOCOBO</t>
+  </si>
+  <si>
+    <t>ADJÊDÈ</t>
+  </si>
+  <si>
+    <t>AKOUSSITÈ</t>
+  </si>
+  <si>
+    <t>ASSODÉ</t>
+  </si>
+  <si>
+    <t>KOMDÈ</t>
+  </si>
+  <si>
+    <t>MANKPASSI</t>
+  </si>
+  <si>
+    <t>WÈKÈTÈ</t>
+  </si>
+  <si>
+    <t>YAMSALÉ</t>
+  </si>
+  <si>
+    <t>AGONGNI</t>
+  </si>
+  <si>
+    <t>ALÉTAN</t>
+  </si>
+  <si>
+    <t>GOTCHA</t>
+  </si>
+  <si>
+    <t>KOTAKPA</t>
+  </si>
+  <si>
+    <t>IGBÈRÈ</t>
+  </si>
+  <si>
+    <t>MANIGRI OKÉ IGBOÉLÉ</t>
+  </si>
+  <si>
+    <t>MANIGRI-IKANNI</t>
+  </si>
+  <si>
+    <t>MANIGRI-OKÉ SOUANGBÉ</t>
+  </si>
+  <si>
+    <t>MODOGUI</t>
+  </si>
+  <si>
+    <t>TÈKÈ-TÉROU</t>
+  </si>
+  <si>
+    <t>WANNOU</t>
+  </si>
+  <si>
+    <t>ATCHAKPA</t>
+  </si>
+  <si>
+    <t>ATCHAKPA-KPINGNI</t>
+  </si>
+  <si>
+    <t>AYÉDJOKO</t>
+  </si>
+  <si>
+    <t>DANI</t>
+  </si>
+  <si>
+    <t>EÉTOU</t>
+  </si>
+  <si>
+    <t>ETIOFÈ</t>
+  </si>
+  <si>
+    <t>GOBÉ</t>
+  </si>
+  <si>
+    <t>AKON</t>
+  </si>
+  <si>
+    <t>GBÉRÉ</t>
+  </si>
+  <si>
+    <t>MONKA</t>
+  </si>
+  <si>
+    <t>OKÉ OWO</t>
+  </si>
+  <si>
+    <t>OKÉ OWO-AGA</t>
+  </si>
+  <si>
+    <t>SANDÉHOU</t>
+  </si>
+  <si>
+    <t>ALAYOMDÈ</t>
+  </si>
+  <si>
+    <t>ASSARADÈ</t>
+  </si>
+  <si>
+    <t>AWANLA</t>
+  </si>
+  <si>
+    <t>KANTÈ</t>
+  </si>
+  <si>
+    <t>KASSUA-ALLAH</t>
+  </si>
+  <si>
+    <t>KOUKOULOUNDA</t>
+  </si>
+  <si>
+    <t>KPÉLITÉ</t>
+  </si>
+  <si>
+    <t>KPÉLOUDÈ</t>
+  </si>
+  <si>
+    <t>SOBITÈ</t>
+  </si>
+  <si>
+    <t>SONAHOLOU</t>
+  </si>
+  <si>
+    <t>SONATÉ</t>
+  </si>
+  <si>
+    <t>TCHALADÈ</t>
+  </si>
+  <si>
+    <t>WAKITÈ</t>
+  </si>
+  <si>
+    <t>AWO</t>
+  </si>
+  <si>
+    <t>BAYAKOU</t>
+  </si>
+  <si>
+    <t>BODI</t>
+  </si>
+  <si>
+    <t>DINGOU</t>
+  </si>
+  <si>
+    <t>KODOWARI</t>
+  </si>
+  <si>
+    <t>MÊLAN</t>
+  </si>
+  <si>
+    <t>NAGAYILÉ</t>
+  </si>
+  <si>
+    <t>NIORO- KOLINA</t>
+  </si>
+  <si>
+    <t>OULI</t>
+  </si>
+  <si>
+    <t>PÉNÉLAN</t>
+  </si>
+  <si>
+    <t>PÉNESSOULOU</t>
+  </si>
+  <si>
+    <t>TABA</t>
+  </si>
+  <si>
+    <t>TCHÉTOU</t>
+  </si>
+  <si>
+    <t>WOLO</t>
+  </si>
+  <si>
+    <t>YARI</t>
+  </si>
+  <si>
+    <t>ADJIGO</t>
+  </si>
+  <si>
+    <t>AYIGBO-KOTO</t>
+  </si>
+  <si>
+    <t>DJÈRO</t>
+  </si>
+  <si>
+    <t>ELA-META</t>
+  </si>
+  <si>
+    <t>IDI-OGOU</t>
+  </si>
+  <si>
+    <t>OKÉ-KAGOURÈ</t>
+  </si>
+  <si>
+    <t>OKOUTA-OSSÉ</t>
+  </si>
+  <si>
+    <t>BOUBOUHOU</t>
+  </si>
+  <si>
+    <t>DAKPA</t>
+  </si>
+  <si>
+    <t>DÉPÔT CENTRE</t>
+  </si>
+  <si>
+    <t>FATCHODJONIN</t>
+  </si>
+  <si>
+    <t>KPABAÏ</t>
+  </si>
+  <si>
+    <t>SAVÈ-NOUVEAU</t>
+  </si>
+  <si>
+    <t>ZONGO</t>
+  </si>
+  <si>
+    <t>BANIGBÉ</t>
+  </si>
+  <si>
+    <t>DIHO-AGBONGUI</t>
+  </si>
+  <si>
+    <t>DIHO-OGBO</t>
+  </si>
+  <si>
+    <t>IWÉÉ</t>
+  </si>
+  <si>
+    <t>KADJOLA</t>
+  </si>
+  <si>
+    <t>OUOGHI-CENTRE</t>
+  </si>
+  <si>
+    <t>OUOGHI-GARE</t>
+  </si>
+  <si>
+    <t>OUOGHI-TITON</t>
+  </si>
+  <si>
+    <t>TCHINTCHIN</t>
+  </si>
+  <si>
+    <t>AMADOU-KPARA</t>
+  </si>
+  <si>
+    <t>BARÉROU</t>
+  </si>
+  <si>
+    <t>GBÉTÉBOU</t>
+  </si>
+  <si>
+    <t>GOMBOUÉROU</t>
+  </si>
+  <si>
+    <t>KAYA</t>
+  </si>
+  <si>
+    <t>KPASSATONA</t>
+  </si>
+  <si>
+    <t>SÉBOU</t>
+  </si>
+  <si>
+    <t>TÉOU-KPARA</t>
+  </si>
+  <si>
+    <t>TOKO- BIO</t>
+  </si>
+  <si>
+    <t>AGBANDARÈ</t>
+  </si>
+  <si>
+    <t>ATCHAKITAM</t>
+  </si>
+  <si>
+    <t>ATCHANKPA-KOLAH</t>
+  </si>
+  <si>
+    <t>BAPARAPÉÏ</t>
+  </si>
+  <si>
+    <t>DAKA</t>
+  </si>
+  <si>
+    <t>GNALO</t>
+  </si>
+  <si>
+    <t>KIM-KIM</t>
+  </si>
+  <si>
+    <t>KOUBLY</t>
+  </si>
+  <si>
+    <t>MAMI</t>
+  </si>
+  <si>
+    <t>OURAMARÉ</t>
+  </si>
+  <si>
+    <t>TCHINGUEYARÉ</t>
+  </si>
+  <si>
+    <t>ADÉDÉWO</t>
+  </si>
+  <si>
+    <t>AGUÉ-GARBA</t>
+  </si>
+  <si>
+    <t>AWOTOBI</t>
+  </si>
+  <si>
+    <t>GAO</t>
+  </si>
+  <si>
+    <t>GBAOU</t>
+  </si>
+  <si>
+    <t>GNANGBAKABIA</t>
+  </si>
+  <si>
+    <t>ITCHELLI</t>
+  </si>
+  <si>
+    <t>KAGNIFÊLÊ</t>
+  </si>
+  <si>
+    <t>KAKPÉSSIA</t>
+  </si>
+  <si>
+    <t>KPAKPALARÉ</t>
+  </si>
+  <si>
+    <t>KPÉLI-FADA</t>
+  </si>
+  <si>
+    <t>N’DJAKADA</t>
+  </si>
+  <si>
+    <t>TROUCARÉ-BAS</t>
+  </si>
+  <si>
+    <t>LANDA</t>
+  </si>
+  <si>
+    <t>MADJATOM</t>
+  </si>
+  <si>
+    <t>AKOUNDANMON</t>
+  </si>
+  <si>
+    <t>BORONIN</t>
+  </si>
+  <si>
+    <t>BORORI</t>
+  </si>
+  <si>
+    <t>DAGBARA-GOUROU</t>
+  </si>
+  <si>
+    <t>GAH-KPÉNOU</t>
+  </si>
+  <si>
+    <t>GANGO</t>
+  </si>
+  <si>
+    <t>GBÉYÈKÈROU</t>
+  </si>
+  <si>
+    <t>GUINIROU</t>
+  </si>
+  <si>
+    <t>KASSOUALA</t>
+  </si>
+  <si>
+    <t>KÈRA</t>
+  </si>
+  <si>
+    <t>KPAKPANIN</t>
+  </si>
+  <si>
+    <t>LAFIA-BIDO</t>
+  </si>
+  <si>
+    <t>OWODÉ</t>
+  </si>
+  <si>
+    <t>TCHALLA</t>
+  </si>
+  <si>
+    <t>TCHAOUROU-GOBI-ALÉDJI</t>
+  </si>
+  <si>
+    <t>TCHAOUROU-ISSALÈ</t>
+  </si>
+  <si>
+    <t>WOROGUI-GOURA</t>
+  </si>
+  <si>
+    <t>YAMBOUAN</t>
+  </si>
+  <si>
+    <t>ATIRA-KPAROU</t>
+  </si>
+  <si>
+    <t>BADÉKPAROU</t>
+  </si>
+  <si>
+    <t>BOUKOUSSÉRA</t>
+  </si>
+  <si>
+    <t>GARAROU</t>
+  </si>
+  <si>
+    <t>GBÉKPANIN</t>
+  </si>
+  <si>
+    <t>GOKANNA</t>
+  </si>
+  <si>
+    <t>GOUSSOUAMBOU</t>
+  </si>
+  <si>
+    <t>KINNOU-KPAROU</t>
+  </si>
+  <si>
+    <t>KONTOUBAROU</t>
+  </si>
+  <si>
+    <t>KOUBOU</t>
+  </si>
+  <si>
+    <t>SAKANA- KPÉBA</t>
+  </si>
+  <si>
+    <t>SOUMON-GAH</t>
+  </si>
+  <si>
+    <t>TÉKPAROU</t>
+  </si>
+  <si>
+    <t>TOUKOSSARI</t>
+  </si>
+  <si>
+    <t>WORIA</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO Stop TDM - 1. Formulaire Site V2</t>
+  </si>
+  <si>
+    <t>bj_oncho_stop_1_202306_site_v2</t>
+  </si>
+  <si>
+    <t>Entrer le nom du village</t>
+  </si>
+  <si>
+    <t>Sélectionner un arrondissement</t>
   </si>
 </sst>
 </file>
@@ -825,13 +1704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,14 +1778,14 @@
         <v>17</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -918,13 +1797,13 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
@@ -946,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>53</v>
+        <v>404</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="15"/>
@@ -959,18 +1838,18 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="15"/>
@@ -983,85 +1862,75 @@
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1074,7 +1943,7 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>35</v>
@@ -1091,22 +1960,9 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -1114,14 +1970,9 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,11 +1982,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD49"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1143,6 +1994,7 @@
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,104 +2008,95 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1261,71 +2104,65 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -1334,13 +2171,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1350,13 +2187,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1366,13 +2203,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1382,13 +2219,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1398,13 +2235,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1414,579 +2251,4900 @@
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+      <c r="E101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" t="s">
+        <v>157</v>
+      </c>
+      <c r="E102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" t="s">
+        <v>158</v>
+      </c>
+      <c r="E103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="E107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="E108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" t="s">
+        <v>164</v>
+      </c>
+      <c r="E110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="E117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" t="s">
+        <v>172</v>
+      </c>
+      <c r="E119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" t="s">
+        <v>176</v>
+      </c>
+      <c r="E124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" t="s">
+        <v>80</v>
+      </c>
+      <c r="E128" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B132" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B133" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+      <c r="E133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134" t="s">
+        <v>183</v>
+      </c>
+      <c r="C134" t="s">
+        <v>183</v>
+      </c>
+      <c r="E134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" t="s">
+        <v>184</v>
+      </c>
+      <c r="E135" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B136" t="s">
+        <v>185</v>
+      </c>
+      <c r="C136" t="s">
+        <v>185</v>
+      </c>
+      <c r="E136" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" t="s">
+        <v>187</v>
+      </c>
+      <c r="C138" t="s">
+        <v>187</v>
+      </c>
+      <c r="E138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" t="s">
+        <v>189</v>
+      </c>
+      <c r="E140" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" t="s">
+        <v>190</v>
+      </c>
+      <c r="E141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" t="s">
+        <v>191</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+      <c r="E142" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B143" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" t="s">
+        <v>193</v>
+      </c>
+      <c r="C144" t="s">
+        <v>193</v>
+      </c>
+      <c r="E144" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B146" t="s">
+        <v>195</v>
+      </c>
+      <c r="C146" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" t="s">
+        <v>199</v>
+      </c>
+      <c r="E150" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" t="s">
+        <v>200</v>
+      </c>
+      <c r="E151" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B152" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" t="s">
+        <v>201</v>
+      </c>
+      <c r="E152" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" t="s">
+        <v>203</v>
+      </c>
+      <c r="E154" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B155" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" t="s">
+        <v>206</v>
+      </c>
+      <c r="E158" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" t="s">
+        <v>207</v>
+      </c>
+      <c r="E159" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B160" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" t="s">
+        <v>208</v>
+      </c>
+      <c r="E160" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" t="s">
+        <v>209</v>
+      </c>
+      <c r="E161" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C162" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B163" t="s">
+        <v>86</v>
+      </c>
+      <c r="C163" t="s">
+        <v>86</v>
+      </c>
+      <c r="E163" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B164" t="s">
+        <v>211</v>
+      </c>
+      <c r="C164" t="s">
+        <v>211</v>
+      </c>
+      <c r="E164" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" t="s">
+        <v>212</v>
+      </c>
+      <c r="E165" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B166" t="s">
+        <v>213</v>
+      </c>
+      <c r="C166" t="s">
+        <v>213</v>
+      </c>
+      <c r="E166" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B167" t="s">
+        <v>214</v>
+      </c>
+      <c r="C167" t="s">
+        <v>214</v>
+      </c>
+      <c r="E167" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B168" t="s">
+        <v>215</v>
+      </c>
+      <c r="C168" t="s">
+        <v>215</v>
+      </c>
+      <c r="E168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169" t="s">
+        <v>216</v>
+      </c>
+      <c r="E169" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B170" t="s">
+        <v>217</v>
+      </c>
+      <c r="C170" t="s">
+        <v>217</v>
+      </c>
+      <c r="E170" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B171" t="s">
+        <v>218</v>
+      </c>
+      <c r="C171" t="s">
+        <v>218</v>
+      </c>
+      <c r="E171" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" t="s">
+        <v>219</v>
+      </c>
+      <c r="C172" t="s">
+        <v>219</v>
+      </c>
+      <c r="E172" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B173" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" t="s">
+        <v>220</v>
+      </c>
+      <c r="E173" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174" t="s">
+        <v>221</v>
+      </c>
+      <c r="C174" t="s">
+        <v>221</v>
+      </c>
+      <c r="E174" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" t="s">
+        <v>222</v>
+      </c>
+      <c r="E175" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B176" t="s">
+        <v>223</v>
+      </c>
+      <c r="C176" t="s">
+        <v>223</v>
+      </c>
+      <c r="E176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B177" t="s">
+        <v>224</v>
+      </c>
+      <c r="C177" t="s">
+        <v>224</v>
+      </c>
+      <c r="E177" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B178" t="s">
+        <v>225</v>
+      </c>
+      <c r="C178" t="s">
+        <v>225</v>
+      </c>
+      <c r="E178" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B179" t="s">
+        <v>226</v>
+      </c>
+      <c r="C179" t="s">
+        <v>226</v>
+      </c>
+      <c r="E179" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180" t="s">
+        <v>227</v>
+      </c>
+      <c r="C180" t="s">
+        <v>227</v>
+      </c>
+      <c r="E180" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B181" t="s">
+        <v>228</v>
+      </c>
+      <c r="C181" t="s">
+        <v>228</v>
+      </c>
+      <c r="E181" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B182" t="s">
+        <v>229</v>
+      </c>
+      <c r="C182" t="s">
+        <v>229</v>
+      </c>
+      <c r="E182" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B183" t="s">
+        <v>230</v>
+      </c>
+      <c r="C183" t="s">
+        <v>230</v>
+      </c>
+      <c r="E183" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B184" t="s">
+        <v>231</v>
+      </c>
+      <c r="C184" t="s">
+        <v>231</v>
+      </c>
+      <c r="E184" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C185" t="s">
+        <v>232</v>
+      </c>
+      <c r="E185" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B186" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" t="s">
+        <v>233</v>
+      </c>
+      <c r="E186" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B187" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" t="s">
+        <v>77</v>
+      </c>
+      <c r="E187" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B188" t="s">
+        <v>234</v>
+      </c>
+      <c r="C188" t="s">
+        <v>234</v>
+      </c>
+      <c r="E188" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B189" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" t="s">
+        <v>235</v>
+      </c>
+      <c r="E189" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B190" t="s">
+        <v>236</v>
+      </c>
+      <c r="C190" t="s">
+        <v>236</v>
+      </c>
+      <c r="E190" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B192" t="s">
+        <v>237</v>
+      </c>
+      <c r="C192" t="s">
+        <v>237</v>
+      </c>
+      <c r="E192" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B193" t="s">
+        <v>238</v>
+      </c>
+      <c r="C193" t="s">
+        <v>238</v>
+      </c>
+      <c r="E193" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B194" t="s">
+        <v>239</v>
+      </c>
+      <c r="C194" t="s">
+        <v>239</v>
+      </c>
+      <c r="E194" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B195" t="s">
+        <v>240</v>
+      </c>
+      <c r="C195" t="s">
+        <v>240</v>
+      </c>
+      <c r="E195" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B196" t="s">
+        <v>241</v>
+      </c>
+      <c r="C196" t="s">
+        <v>241</v>
+      </c>
+      <c r="E196" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B197" t="s">
+        <v>242</v>
+      </c>
+      <c r="C197" t="s">
+        <v>242</v>
+      </c>
+      <c r="E197" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B198" t="s">
+        <v>243</v>
+      </c>
+      <c r="C198" t="s">
+        <v>243</v>
+      </c>
+      <c r="E198" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B199" t="s">
+        <v>244</v>
+      </c>
+      <c r="C199" t="s">
+        <v>244</v>
+      </c>
+      <c r="E199" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B200" t="s">
+        <v>245</v>
+      </c>
+      <c r="C200" t="s">
+        <v>245</v>
+      </c>
+      <c r="E200" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B201" t="s">
+        <v>246</v>
+      </c>
+      <c r="C201" t="s">
+        <v>246</v>
+      </c>
+      <c r="E201" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202" t="s">
+        <v>247</v>
+      </c>
+      <c r="C202" t="s">
+        <v>247</v>
+      </c>
+      <c r="E202" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B203" t="s">
+        <v>248</v>
+      </c>
+      <c r="C203" t="s">
+        <v>248</v>
+      </c>
+      <c r="E203" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B204" t="s">
+        <v>249</v>
+      </c>
+      <c r="C204" t="s">
+        <v>249</v>
+      </c>
+      <c r="E204" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B205" t="s">
+        <v>250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>250</v>
+      </c>
+      <c r="E205" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B206" t="s">
+        <v>251</v>
+      </c>
+      <c r="C206" t="s">
+        <v>251</v>
+      </c>
+      <c r="E206" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" t="s">
+        <v>252</v>
+      </c>
+      <c r="C207" t="s">
+        <v>252</v>
+      </c>
+      <c r="E207" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B208" t="s">
+        <v>253</v>
+      </c>
+      <c r="C208" t="s">
+        <v>253</v>
+      </c>
+      <c r="E208" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B209" t="s">
+        <v>254</v>
+      </c>
+      <c r="C209" t="s">
+        <v>254</v>
+      </c>
+      <c r="E209" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B210" t="s">
+        <v>255</v>
+      </c>
+      <c r="C210" t="s">
+        <v>255</v>
+      </c>
+      <c r="E210" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B211" t="s">
+        <v>256</v>
+      </c>
+      <c r="C211" t="s">
+        <v>256</v>
+      </c>
+      <c r="E211" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B212" t="s">
+        <v>257</v>
+      </c>
+      <c r="C212" t="s">
+        <v>257</v>
+      </c>
+      <c r="E212" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B213" t="s">
+        <v>258</v>
+      </c>
+      <c r="C213" t="s">
+        <v>258</v>
+      </c>
+      <c r="E213" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B214" t="s">
+        <v>259</v>
+      </c>
+      <c r="C214" t="s">
+        <v>259</v>
+      </c>
+      <c r="E214" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B215" t="s">
+        <v>260</v>
+      </c>
+      <c r="C215" t="s">
+        <v>260</v>
+      </c>
+      <c r="E215" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B216" t="s">
+        <v>261</v>
+      </c>
+      <c r="C216" t="s">
+        <v>261</v>
+      </c>
+      <c r="E216" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B217" t="s">
+        <v>262</v>
+      </c>
+      <c r="C217" t="s">
+        <v>262</v>
+      </c>
+      <c r="E217" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218" t="s">
+        <v>263</v>
+      </c>
+      <c r="C218" t="s">
+        <v>263</v>
+      </c>
+      <c r="E218" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B219" t="s">
+        <v>264</v>
+      </c>
+      <c r="C219" t="s">
+        <v>264</v>
+      </c>
+      <c r="E219" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B220" t="s">
+        <v>265</v>
+      </c>
+      <c r="C220" t="s">
+        <v>265</v>
+      </c>
+      <c r="E220" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B221" t="s">
+        <v>266</v>
+      </c>
+      <c r="C221" t="s">
+        <v>266</v>
+      </c>
+      <c r="E221" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B222" t="s">
+        <v>267</v>
+      </c>
+      <c r="C222" t="s">
+        <v>267</v>
+      </c>
+      <c r="E222" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B223" t="s">
+        <v>268</v>
+      </c>
+      <c r="C223" t="s">
+        <v>268</v>
+      </c>
+      <c r="E223" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B224" t="s">
+        <v>269</v>
+      </c>
+      <c r="C224" t="s">
+        <v>269</v>
+      </c>
+      <c r="E224" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B225" t="s">
+        <v>270</v>
+      </c>
+      <c r="C225" t="s">
+        <v>270</v>
+      </c>
+      <c r="E225" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B226" t="s">
+        <v>271</v>
+      </c>
+      <c r="C226" t="s">
+        <v>271</v>
+      </c>
+      <c r="E226" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B227" t="s">
+        <v>272</v>
+      </c>
+      <c r="C227" t="s">
+        <v>272</v>
+      </c>
+      <c r="E227" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B228" t="s">
+        <v>273</v>
+      </c>
+      <c r="C228" t="s">
+        <v>273</v>
+      </c>
+      <c r="E228" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229" t="s">
+        <v>274</v>
+      </c>
+      <c r="C229" t="s">
+        <v>274</v>
+      </c>
+      <c r="E229" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B230" t="s">
+        <v>275</v>
+      </c>
+      <c r="C230" t="s">
+        <v>275</v>
+      </c>
+      <c r="E230" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B231" t="s">
+        <v>276</v>
+      </c>
+      <c r="C231" t="s">
+        <v>276</v>
+      </c>
+      <c r="E231" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B232" t="s">
+        <v>277</v>
+      </c>
+      <c r="C232" t="s">
+        <v>277</v>
+      </c>
+      <c r="E232" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B233" t="s">
+        <v>278</v>
+      </c>
+      <c r="C233" t="s">
+        <v>278</v>
+      </c>
+      <c r="E233" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B234" t="s">
+        <v>279</v>
+      </c>
+      <c r="C234" t="s">
+        <v>279</v>
+      </c>
+      <c r="E234" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B235" t="s">
+        <v>280</v>
+      </c>
+      <c r="C235" t="s">
+        <v>280</v>
+      </c>
+      <c r="E235" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B236" t="s">
+        <v>281</v>
+      </c>
+      <c r="C236" t="s">
+        <v>281</v>
+      </c>
+      <c r="E236" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B237" t="s">
+        <v>282</v>
+      </c>
+      <c r="C237" t="s">
+        <v>282</v>
+      </c>
+      <c r="E237" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B238" t="s">
+        <v>283</v>
+      </c>
+      <c r="C238" t="s">
+        <v>283</v>
+      </c>
+      <c r="E238" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B239" t="s">
+        <v>284</v>
+      </c>
+      <c r="C239" t="s">
+        <v>284</v>
+      </c>
+      <c r="E239" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B240" t="s">
+        <v>285</v>
+      </c>
+      <c r="C240" t="s">
+        <v>285</v>
+      </c>
+      <c r="E240" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B241" t="s">
+        <v>286</v>
+      </c>
+      <c r="C241" t="s">
+        <v>286</v>
+      </c>
+      <c r="E241" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B242" t="s">
+        <v>287</v>
+      </c>
+      <c r="C242" t="s">
+        <v>287</v>
+      </c>
+      <c r="E242" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B243" t="s">
+        <v>288</v>
+      </c>
+      <c r="C243" t="s">
+        <v>288</v>
+      </c>
+      <c r="E243" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B244" t="s">
+        <v>289</v>
+      </c>
+      <c r="C244" t="s">
+        <v>289</v>
+      </c>
+      <c r="E244" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B245" t="s">
+        <v>290</v>
+      </c>
+      <c r="C245" t="s">
+        <v>290</v>
+      </c>
+      <c r="E245" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B246" t="s">
+        <v>291</v>
+      </c>
+      <c r="C246" t="s">
+        <v>291</v>
+      </c>
+      <c r="E246" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B247" t="s">
+        <v>292</v>
+      </c>
+      <c r="C247" t="s">
+        <v>292</v>
+      </c>
+      <c r="E247" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B248" t="s">
+        <v>293</v>
+      </c>
+      <c r="C248" t="s">
+        <v>293</v>
+      </c>
+      <c r="E248" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B249" t="s">
+        <v>294</v>
+      </c>
+      <c r="C249" t="s">
+        <v>294</v>
+      </c>
+      <c r="E249" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B250" t="s">
+        <v>295</v>
+      </c>
+      <c r="C250" t="s">
+        <v>295</v>
+      </c>
+      <c r="E250" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B251" t="s">
+        <v>296</v>
+      </c>
+      <c r="C251" t="s">
+        <v>296</v>
+      </c>
+      <c r="E251" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B252" t="s">
+        <v>297</v>
+      </c>
+      <c r="C252" t="s">
+        <v>297</v>
+      </c>
+      <c r="E252" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B253" t="s">
+        <v>298</v>
+      </c>
+      <c r="C253" t="s">
+        <v>298</v>
+      </c>
+      <c r="E253" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B254" t="s">
+        <v>299</v>
+      </c>
+      <c r="C254" t="s">
+        <v>299</v>
+      </c>
+      <c r="E254" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B255" t="s">
+        <v>300</v>
+      </c>
+      <c r="C255" t="s">
+        <v>300</v>
+      </c>
+      <c r="E255" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B256" t="s">
+        <v>301</v>
+      </c>
+      <c r="C256" t="s">
+        <v>301</v>
+      </c>
+      <c r="E256" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B257" t="s">
+        <v>302</v>
+      </c>
+      <c r="C257" t="s">
+        <v>302</v>
+      </c>
+      <c r="E257" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B258" t="s">
+        <v>303</v>
+      </c>
+      <c r="C258" t="s">
+        <v>303</v>
+      </c>
+      <c r="E258" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B259" t="s">
+        <v>304</v>
+      </c>
+      <c r="C259" t="s">
+        <v>304</v>
+      </c>
+      <c r="E259" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B260" t="s">
+        <v>305</v>
+      </c>
+      <c r="C260" t="s">
+        <v>305</v>
+      </c>
+      <c r="E260" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B261" t="s">
+        <v>79</v>
+      </c>
+      <c r="C261" t="s">
+        <v>79</v>
+      </c>
+      <c r="E261" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B262" t="s">
+        <v>306</v>
+      </c>
+      <c r="C262" t="s">
+        <v>306</v>
+      </c>
+      <c r="E262" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B263" t="s">
+        <v>307</v>
+      </c>
+      <c r="C263" t="s">
+        <v>307</v>
+      </c>
+      <c r="E263" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B264" t="s">
+        <v>308</v>
+      </c>
+      <c r="C264" t="s">
+        <v>308</v>
+      </c>
+      <c r="E264" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B265" t="s">
+        <v>309</v>
+      </c>
+      <c r="C265" t="s">
+        <v>309</v>
+      </c>
+      <c r="E265" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B266" t="s">
+        <v>310</v>
+      </c>
+      <c r="C266" t="s">
+        <v>310</v>
+      </c>
+      <c r="E266" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B267" t="s">
+        <v>311</v>
+      </c>
+      <c r="C267" t="s">
+        <v>311</v>
+      </c>
+      <c r="E267" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B268" t="s">
+        <v>312</v>
+      </c>
+      <c r="C268" t="s">
+        <v>312</v>
+      </c>
+      <c r="E268" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B269" t="s">
+        <v>313</v>
+      </c>
+      <c r="C269" t="s">
+        <v>313</v>
+      </c>
+      <c r="E269" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B270" t="s">
+        <v>314</v>
+      </c>
+      <c r="C270" t="s">
+        <v>314</v>
+      </c>
+      <c r="E270" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B271" t="s">
+        <v>315</v>
+      </c>
+      <c r="C271" t="s">
+        <v>315</v>
+      </c>
+      <c r="E271" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272" t="s">
+        <v>316</v>
+      </c>
+      <c r="C272" t="s">
+        <v>316</v>
+      </c>
+      <c r="E272" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B273" t="s">
+        <v>317</v>
+      </c>
+      <c r="C273" t="s">
+        <v>317</v>
+      </c>
+      <c r="E273" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B274" t="s">
+        <v>318</v>
+      </c>
+      <c r="C274" t="s">
+        <v>318</v>
+      </c>
+      <c r="E274" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B275" t="s">
+        <v>319</v>
+      </c>
+      <c r="C275" t="s">
+        <v>319</v>
+      </c>
+      <c r="E275" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B276" t="s">
+        <v>320</v>
+      </c>
+      <c r="C276" t="s">
+        <v>320</v>
+      </c>
+      <c r="E276" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B277" t="s">
+        <v>321</v>
+      </c>
+      <c r="C277" t="s">
+        <v>321</v>
+      </c>
+      <c r="E277" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B278" t="s">
+        <v>322</v>
+      </c>
+      <c r="C278" t="s">
+        <v>322</v>
+      </c>
+      <c r="E278" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B279" t="s">
+        <v>323</v>
+      </c>
+      <c r="C279" t="s">
+        <v>323</v>
+      </c>
+      <c r="E279" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B280" t="s">
+        <v>324</v>
+      </c>
+      <c r="C280" t="s">
+        <v>324</v>
+      </c>
+      <c r="E280" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B281" t="s">
+        <v>325</v>
+      </c>
+      <c r="C281" t="s">
+        <v>325</v>
+      </c>
+      <c r="E281" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B282" t="s">
+        <v>326</v>
+      </c>
+      <c r="C282" t="s">
+        <v>326</v>
+      </c>
+      <c r="E282" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B283" t="s">
+        <v>327</v>
+      </c>
+      <c r="C283" t="s">
+        <v>327</v>
+      </c>
+      <c r="E283" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B284" t="s">
+        <v>328</v>
+      </c>
+      <c r="C284" t="s">
+        <v>328</v>
+      </c>
+      <c r="E284" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B285" t="s">
+        <v>329</v>
+      </c>
+      <c r="C285" t="s">
+        <v>329</v>
+      </c>
+      <c r="E285" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B286" t="s">
+        <v>330</v>
+      </c>
+      <c r="C286" t="s">
+        <v>330</v>
+      </c>
+      <c r="E286" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B287" t="s">
+        <v>331</v>
+      </c>
+      <c r="C287" t="s">
+        <v>331</v>
+      </c>
+      <c r="E287" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B288" t="s">
+        <v>332</v>
+      </c>
+      <c r="C288" t="s">
+        <v>332</v>
+      </c>
+      <c r="E288" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B289" t="s">
+        <v>333</v>
+      </c>
+      <c r="C289" t="s">
+        <v>333</v>
+      </c>
+      <c r="E289" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B290" t="s">
+        <v>334</v>
+      </c>
+      <c r="C290" t="s">
+        <v>334</v>
+      </c>
+      <c r="E290" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B291" t="s">
+        <v>335</v>
+      </c>
+      <c r="C291" t="s">
+        <v>335</v>
+      </c>
+      <c r="E291" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B292" t="s">
+        <v>336</v>
+      </c>
+      <c r="C292" t="s">
+        <v>336</v>
+      </c>
+      <c r="E292" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B293" t="s">
+        <v>337</v>
+      </c>
+      <c r="C293" t="s">
+        <v>337</v>
+      </c>
+      <c r="E293" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B294" t="s">
+        <v>338</v>
+      </c>
+      <c r="C294" t="s">
+        <v>338</v>
+      </c>
+      <c r="E294" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B295" t="s">
+        <v>105</v>
+      </c>
+      <c r="C295" t="s">
+        <v>105</v>
+      </c>
+      <c r="E295" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B296" t="s">
+        <v>339</v>
+      </c>
+      <c r="C296" t="s">
+        <v>339</v>
+      </c>
+      <c r="E296" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B297" t="s">
+        <v>340</v>
+      </c>
+      <c r="C297" t="s">
+        <v>340</v>
+      </c>
+      <c r="E297" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B298" t="s">
+        <v>341</v>
+      </c>
+      <c r="C298" t="s">
+        <v>341</v>
+      </c>
+      <c r="E298" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B299" t="s">
+        <v>342</v>
+      </c>
+      <c r="C299" t="s">
+        <v>342</v>
+      </c>
+      <c r="E299" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B300" t="s">
+        <v>343</v>
+      </c>
+      <c r="C300" t="s">
+        <v>343</v>
+      </c>
+      <c r="E300" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B301" t="s">
+        <v>344</v>
+      </c>
+      <c r="C301" t="s">
+        <v>344</v>
+      </c>
+      <c r="E301" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B302" t="s">
+        <v>345</v>
+      </c>
+      <c r="C302" t="s">
+        <v>345</v>
+      </c>
+      <c r="E302" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B303" t="s">
+        <v>346</v>
+      </c>
+      <c r="C303" t="s">
+        <v>346</v>
+      </c>
+      <c r="E303" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B304" t="s">
+        <v>347</v>
+      </c>
+      <c r="C304" t="s">
+        <v>347</v>
+      </c>
+      <c r="E304" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B305" t="s">
+        <v>348</v>
+      </c>
+      <c r="C305" t="s">
+        <v>348</v>
+      </c>
+      <c r="E305" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B306" t="s">
+        <v>349</v>
+      </c>
+      <c r="C306" t="s">
+        <v>349</v>
+      </c>
+      <c r="E306" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B307" t="s">
+        <v>350</v>
+      </c>
+      <c r="C307" t="s">
+        <v>350</v>
+      </c>
+      <c r="E307" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B308" t="s">
+        <v>351</v>
+      </c>
+      <c r="C308" t="s">
+        <v>351</v>
+      </c>
+      <c r="E308" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B309" t="s">
+        <v>352</v>
+      </c>
+      <c r="C309" t="s">
+        <v>352</v>
+      </c>
+      <c r="E309" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B310" t="s">
+        <v>353</v>
+      </c>
+      <c r="C310" t="s">
+        <v>353</v>
+      </c>
+      <c r="E310" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B311" t="s">
+        <v>354</v>
+      </c>
+      <c r="C311" t="s">
+        <v>354</v>
+      </c>
+      <c r="E311" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B312" t="s">
+        <v>355</v>
+      </c>
+      <c r="C312" t="s">
+        <v>355</v>
+      </c>
+      <c r="E312" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B313" t="s">
+        <v>356</v>
+      </c>
+      <c r="C313" t="s">
+        <v>356</v>
+      </c>
+      <c r="E313" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B314" t="s">
+        <v>357</v>
+      </c>
+      <c r="C314" t="s">
+        <v>357</v>
+      </c>
+      <c r="E314" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B315" t="s">
+        <v>358</v>
+      </c>
+      <c r="C315" t="s">
+        <v>358</v>
+      </c>
+      <c r="E315" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B316" t="s">
+        <v>359</v>
+      </c>
+      <c r="C316" t="s">
+        <v>359</v>
+      </c>
+      <c r="E316" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B317" t="s">
+        <v>360</v>
+      </c>
+      <c r="C317" t="s">
+        <v>360</v>
+      </c>
+      <c r="E317" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B318" t="s">
+        <v>361</v>
+      </c>
+      <c r="C318" t="s">
+        <v>361</v>
+      </c>
+      <c r="E318" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B319" t="s">
+        <v>362</v>
+      </c>
+      <c r="C319" t="s">
+        <v>362</v>
+      </c>
+      <c r="E319" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B320" t="s">
+        <v>363</v>
+      </c>
+      <c r="C320" t="s">
+        <v>363</v>
+      </c>
+      <c r="E320" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B321" t="s">
+        <v>364</v>
+      </c>
+      <c r="C321" t="s">
+        <v>364</v>
+      </c>
+      <c r="E321" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B322" t="s">
+        <v>365</v>
+      </c>
+      <c r="C322" t="s">
+        <v>365</v>
+      </c>
+      <c r="E322" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B323" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
+      <c r="C323" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>45</v>
+      <c r="E323" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B324" t="s">
+        <v>366</v>
+      </c>
+      <c r="C324" t="s">
+        <v>366</v>
+      </c>
+      <c r="E324" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B325" t="s">
+        <v>367</v>
+      </c>
+      <c r="C325" t="s">
+        <v>367</v>
+      </c>
+      <c r="E325" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B326" t="s">
+        <v>96</v>
+      </c>
+      <c r="C326" t="s">
+        <v>96</v>
+      </c>
+      <c r="E326" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B327" t="s">
+        <v>368</v>
+      </c>
+      <c r="C327" t="s">
+        <v>368</v>
+      </c>
+      <c r="E327" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B328" t="s">
+        <v>369</v>
+      </c>
+      <c r="C328" t="s">
+        <v>369</v>
+      </c>
+      <c r="E328" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B329" t="s">
+        <v>370</v>
+      </c>
+      <c r="C329" t="s">
+        <v>370</v>
+      </c>
+      <c r="E329" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B330" t="s">
+        <v>371</v>
+      </c>
+      <c r="C330" t="s">
+        <v>371</v>
+      </c>
+      <c r="E330" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B331" t="s">
+        <v>372</v>
+      </c>
+      <c r="C331" t="s">
+        <v>372</v>
+      </c>
+      <c r="E331" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B332" t="s">
+        <v>373</v>
+      </c>
+      <c r="C332" t="s">
+        <v>373</v>
+      </c>
+      <c r="E332" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B333" t="s">
+        <v>374</v>
+      </c>
+      <c r="C333" t="s">
+        <v>374</v>
+      </c>
+      <c r="E333" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B334" t="s">
+        <v>375</v>
+      </c>
+      <c r="C334" t="s">
+        <v>375</v>
+      </c>
+      <c r="E334" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B335" t="s">
+        <v>376</v>
+      </c>
+      <c r="C335" t="s">
+        <v>376</v>
+      </c>
+      <c r="E335" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B336" t="s">
+        <v>377</v>
+      </c>
+      <c r="C336" t="s">
+        <v>377</v>
+      </c>
+      <c r="E336" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B337" t="s">
+        <v>378</v>
+      </c>
+      <c r="C337" t="s">
+        <v>378</v>
+      </c>
+      <c r="E337" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B338" t="s">
+        <v>379</v>
+      </c>
+      <c r="C338" t="s">
+        <v>379</v>
+      </c>
+      <c r="E338" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B339" t="s">
+        <v>380</v>
+      </c>
+      <c r="C339" t="s">
+        <v>380</v>
+      </c>
+      <c r="E339" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B340" t="s">
+        <v>381</v>
+      </c>
+      <c r="C340" t="s">
+        <v>381</v>
+      </c>
+      <c r="E340" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B341" t="s">
+        <v>66</v>
+      </c>
+      <c r="C341" t="s">
+        <v>66</v>
+      </c>
+      <c r="E341" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B342" t="s">
+        <v>382</v>
+      </c>
+      <c r="C342" t="s">
+        <v>382</v>
+      </c>
+      <c r="E342" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B343" t="s">
+        <v>383</v>
+      </c>
+      <c r="C343" t="s">
+        <v>383</v>
+      </c>
+      <c r="E343" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B344" t="s">
+        <v>384</v>
+      </c>
+      <c r="C344" t="s">
+        <v>384</v>
+      </c>
+      <c r="E344" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B345" t="s">
+        <v>385</v>
+      </c>
+      <c r="C345" t="s">
+        <v>385</v>
+      </c>
+      <c r="E345" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B346" t="s">
+        <v>386</v>
+      </c>
+      <c r="C346" t="s">
+        <v>386</v>
+      </c>
+      <c r="E346" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B347" t="s">
+        <v>387</v>
+      </c>
+      <c r="C347" t="s">
+        <v>387</v>
+      </c>
+      <c r="E347" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B348" t="s">
+        <v>388</v>
+      </c>
+      <c r="C348" t="s">
+        <v>388</v>
+      </c>
+      <c r="E348" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B349" t="s">
+        <v>389</v>
+      </c>
+      <c r="C349" t="s">
+        <v>389</v>
+      </c>
+      <c r="E349" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B350" t="s">
+        <v>390</v>
+      </c>
+      <c r="C350" t="s">
+        <v>390</v>
+      </c>
+      <c r="E350" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B351" t="s">
+        <v>391</v>
+      </c>
+      <c r="C351" t="s">
+        <v>391</v>
+      </c>
+      <c r="E351" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B352" t="s">
+        <v>392</v>
+      </c>
+      <c r="C352" t="s">
+        <v>392</v>
+      </c>
+      <c r="E352" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B353" t="s">
+        <v>393</v>
+      </c>
+      <c r="C353" t="s">
+        <v>393</v>
+      </c>
+      <c r="E353" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B354" t="s">
+        <v>394</v>
+      </c>
+      <c r="C354" t="s">
+        <v>394</v>
+      </c>
+      <c r="E354" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B355" t="s">
+        <v>395</v>
+      </c>
+      <c r="C355" t="s">
+        <v>395</v>
+      </c>
+      <c r="E355" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B356" t="s">
+        <v>396</v>
+      </c>
+      <c r="C356" t="s">
+        <v>396</v>
+      </c>
+      <c r="E356" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B357" t="s">
+        <v>397</v>
+      </c>
+      <c r="C357" t="s">
+        <v>397</v>
+      </c>
+      <c r="E357" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B358" t="s">
+        <v>106</v>
+      </c>
+      <c r="C358" t="s">
+        <v>106</v>
+      </c>
+      <c r="E358" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B359" t="s">
+        <v>398</v>
+      </c>
+      <c r="C359" t="s">
+        <v>398</v>
+      </c>
+      <c r="E359" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B360" t="s">
+        <v>399</v>
+      </c>
+      <c r="C360" t="s">
+        <v>399</v>
+      </c>
+      <c r="E360" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B361" t="s">
+        <v>400</v>
+      </c>
+      <c r="C361" t="s">
+        <v>400</v>
+      </c>
+      <c r="E361" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:B118">
-    <sortCondition ref="B73:B118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A97:B142">
+    <sortCondition ref="B97:B142"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1998,13 +7156,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2022,21 +7180,21 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="C2">
         <v>20201130</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
